--- a/data/pca/factorExposure/factorExposure_2012-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-22.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01793047236109889</v>
+        <v>0.02216363908418005</v>
       </c>
       <c r="C2">
-        <v>-0.03244495144696829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02550212318429917</v>
+      </c>
+      <c r="D2">
+        <v>0.002424296372648193</v>
+      </c>
+      <c r="E2">
+        <v>-0.02768837423688216</v>
+      </c>
+      <c r="F2">
+        <v>0.009480470562591681</v>
+      </c>
+      <c r="G2">
+        <v>-0.01236575236333946</v>
+      </c>
+      <c r="H2">
+        <v>0.05207826057943013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07093757782414185</v>
+        <v>0.07987395958082451</v>
       </c>
       <c r="C4">
-        <v>-0.05891466674510646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03889825566200448</v>
+      </c>
+      <c r="D4">
+        <v>-0.07039314560617581</v>
+      </c>
+      <c r="E4">
+        <v>-0.0005307109323908017</v>
+      </c>
+      <c r="F4">
+        <v>0.03336959102661131</v>
+      </c>
+      <c r="G4">
+        <v>-0.0003582094230410117</v>
+      </c>
+      <c r="H4">
+        <v>-0.02469917510858908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1006565716341252</v>
+        <v>0.1162706794933464</v>
       </c>
       <c r="C6">
-        <v>-0.06437968641446197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04061879609630983</v>
+      </c>
+      <c r="D6">
+        <v>-0.01467698447874517</v>
+      </c>
+      <c r="E6">
+        <v>0.005391959794187223</v>
+      </c>
+      <c r="F6">
+        <v>0.05259377483029538</v>
+      </c>
+      <c r="G6">
+        <v>-0.01609578777366961</v>
+      </c>
+      <c r="H6">
+        <v>0.06822069682570653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04946705174001904</v>
+        <v>0.05948994432804751</v>
       </c>
       <c r="C7">
-        <v>-0.03447007056005738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02301201325812545</v>
+      </c>
+      <c r="D7">
+        <v>-0.04131384573162951</v>
+      </c>
+      <c r="E7">
+        <v>-0.02124518247305707</v>
+      </c>
+      <c r="F7">
+        <v>0.03420685028822852</v>
+      </c>
+      <c r="G7">
+        <v>0.04326862572583371</v>
+      </c>
+      <c r="H7">
+        <v>-0.02970204535045546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03429270226361898</v>
+        <v>0.03762046505236492</v>
       </c>
       <c r="C8">
-        <v>-0.02438375122543534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01445496461418177</v>
+      </c>
+      <c r="D8">
+        <v>-0.03920614382751281</v>
+      </c>
+      <c r="E8">
+        <v>-0.003604889071887024</v>
+      </c>
+      <c r="F8">
+        <v>0.0482391734928706</v>
+      </c>
+      <c r="G8">
+        <v>-0.02242801585907985</v>
+      </c>
+      <c r="H8">
+        <v>0.02517849384361658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06514914346560863</v>
+        <v>0.07446407106267183</v>
       </c>
       <c r="C9">
-        <v>-0.04739436494948517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02882063959007582</v>
+      </c>
+      <c r="D9">
+        <v>-0.06819718615816905</v>
+      </c>
+      <c r="E9">
+        <v>-0.01915067803073545</v>
+      </c>
+      <c r="F9">
+        <v>0.04030668528570842</v>
+      </c>
+      <c r="G9">
+        <v>0.0004739625467581627</v>
+      </c>
+      <c r="H9">
+        <v>-0.05368318453534739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03236222045709336</v>
+        <v>0.04213817751967027</v>
       </c>
       <c r="C10">
-        <v>-0.03538123406625313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03657130351008209</v>
+      </c>
+      <c r="D10">
+        <v>0.1784660952859814</v>
+      </c>
+      <c r="E10">
+        <v>-0.04670912104719319</v>
+      </c>
+      <c r="F10">
+        <v>0.04391687997237613</v>
+      </c>
+      <c r="G10">
+        <v>0.03883770630232165</v>
+      </c>
+      <c r="H10">
+        <v>0.03087549011548602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06775921908429003</v>
+        <v>0.07581357359722617</v>
       </c>
       <c r="C11">
-        <v>-0.05099209890254264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03035240733955043</v>
+      </c>
+      <c r="D11">
+        <v>-0.06709668514694367</v>
+      </c>
+      <c r="E11">
+        <v>0.01091711748883694</v>
+      </c>
+      <c r="F11">
+        <v>0.02890260873739025</v>
+      </c>
+      <c r="G11">
+        <v>0.01434920229462556</v>
+      </c>
+      <c r="H11">
+        <v>-0.09320036217955205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05357198379644375</v>
+        <v>0.06450840746630791</v>
       </c>
       <c r="C12">
-        <v>-0.05185646300194505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03602935632960252</v>
+      </c>
+      <c r="D12">
+        <v>-0.05099831262777687</v>
+      </c>
+      <c r="E12">
+        <v>-0.008756227695360802</v>
+      </c>
+      <c r="F12">
+        <v>0.02639786715065062</v>
+      </c>
+      <c r="G12">
+        <v>0.007986249781202234</v>
+      </c>
+      <c r="H12">
+        <v>-0.05099967425532991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05790692232175668</v>
+        <v>0.06502374015208555</v>
       </c>
       <c r="C13">
-        <v>-0.04773275839733775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02966812312531159</v>
+      </c>
+      <c r="D13">
+        <v>-0.03886412053061686</v>
+      </c>
+      <c r="E13">
+        <v>0.0004057020825698455</v>
+      </c>
+      <c r="F13">
+        <v>0.002606031884452769</v>
+      </c>
+      <c r="G13">
+        <v>-0.00280953893191429</v>
+      </c>
+      <c r="H13">
+        <v>-0.06381243690072648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03157183315372273</v>
+        <v>0.03946640327585116</v>
       </c>
       <c r="C14">
-        <v>-0.03116011650363453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02383022657693857</v>
+      </c>
+      <c r="D14">
+        <v>-0.006019332216063436</v>
+      </c>
+      <c r="E14">
+        <v>-0.02067499805186133</v>
+      </c>
+      <c r="F14">
+        <v>0.02139035969799595</v>
+      </c>
+      <c r="G14">
+        <v>-0.004003314923511346</v>
+      </c>
+      <c r="H14">
+        <v>-0.05675982626110628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04019832613118065</v>
+        <v>0.04041107459109577</v>
       </c>
       <c r="C15">
-        <v>-0.01218918813103938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002136655954030609</v>
+      </c>
+      <c r="D15">
+        <v>-0.009358500571240214</v>
+      </c>
+      <c r="E15">
+        <v>-0.03981056381234203</v>
+      </c>
+      <c r="F15">
+        <v>-0.0005706261401836265</v>
+      </c>
+      <c r="G15">
+        <v>-0.02071073349216789</v>
+      </c>
+      <c r="H15">
+        <v>-0.0585018874956488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05626321147617471</v>
+        <v>0.06404538591656024</v>
       </c>
       <c r="C16">
-        <v>-0.04359452319435188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02763033143285466</v>
+      </c>
+      <c r="D16">
+        <v>-0.06195198262431624</v>
+      </c>
+      <c r="E16">
+        <v>0.0006065581296880826</v>
+      </c>
+      <c r="F16">
+        <v>0.02632543402358667</v>
+      </c>
+      <c r="G16">
+        <v>0.006001546896699786</v>
+      </c>
+      <c r="H16">
+        <v>-0.05657665083711132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06172925862540978</v>
+        <v>0.06238977151684056</v>
       </c>
       <c r="C20">
-        <v>-0.03776974895588897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01732752614634749</v>
+      </c>
+      <c r="D20">
+        <v>-0.05383521708581743</v>
+      </c>
+      <c r="E20">
+        <v>-0.01751269345501517</v>
+      </c>
+      <c r="F20">
+        <v>0.02781190590674605</v>
+      </c>
+      <c r="G20">
+        <v>0.003871175543056867</v>
+      </c>
+      <c r="H20">
+        <v>-0.04813601262635963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02468162456723337</v>
+        <v>0.02333720217155582</v>
       </c>
       <c r="C21">
-        <v>0.004358431658893973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01219021341646603</v>
+      </c>
+      <c r="D21">
+        <v>-0.03420623569418824</v>
+      </c>
+      <c r="E21">
+        <v>-0.07946572200595477</v>
+      </c>
+      <c r="F21">
+        <v>-0.002563630480353045</v>
+      </c>
+      <c r="G21">
+        <v>-0.007797480975698873</v>
+      </c>
+      <c r="H21">
+        <v>0.01667679332151585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06910182226418438</v>
+        <v>0.06216999272110559</v>
       </c>
       <c r="C22">
-        <v>-0.06667043077999714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03854455910422699</v>
+      </c>
+      <c r="D22">
+        <v>-0.09673764227758666</v>
+      </c>
+      <c r="E22">
+        <v>-0.6182291863191085</v>
+      </c>
+      <c r="F22">
+        <v>-0.1053729450720128</v>
+      </c>
+      <c r="G22">
+        <v>0.0235275771453146</v>
+      </c>
+      <c r="H22">
+        <v>0.1245465920055921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07029961862428259</v>
+        <v>0.06265298200299453</v>
       </c>
       <c r="C23">
-        <v>-0.06602577465795903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0374166288363699</v>
+      </c>
+      <c r="D23">
+        <v>-0.09754860704355366</v>
+      </c>
+      <c r="E23">
+        <v>-0.6172730154209058</v>
+      </c>
+      <c r="F23">
+        <v>-0.1047190887266613</v>
+      </c>
+      <c r="G23">
+        <v>0.02225238737417871</v>
+      </c>
+      <c r="H23">
+        <v>0.1197057760457941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0657299642312888</v>
+        <v>0.07576962801191518</v>
       </c>
       <c r="C24">
-        <v>-0.05284831314828867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03332768912364417</v>
+      </c>
+      <c r="D24">
+        <v>-0.06409901813410804</v>
+      </c>
+      <c r="E24">
+        <v>-0.007189072797028907</v>
+      </c>
+      <c r="F24">
+        <v>0.03715578431872526</v>
+      </c>
+      <c r="G24">
+        <v>-0.0006040016536279935</v>
+      </c>
+      <c r="H24">
+        <v>-0.06524833505402901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06617009870447423</v>
+        <v>0.07432674128916894</v>
       </c>
       <c r="C25">
-        <v>-0.05845992173583572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03802969161097173</v>
+      </c>
+      <c r="D25">
+        <v>-0.06050944908103652</v>
+      </c>
+      <c r="E25">
+        <v>-0.01177476505142287</v>
+      </c>
+      <c r="F25">
+        <v>0.0349247694990918</v>
+      </c>
+      <c r="G25">
+        <v>-0.01138962931327105</v>
+      </c>
+      <c r="H25">
+        <v>-0.06940341379597002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04010756165998015</v>
+        <v>0.04303553398034787</v>
       </c>
       <c r="C26">
-        <v>-0.01311081112423601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.003786928735145636</v>
+      </c>
+      <c r="D26">
+        <v>-0.02719861684900227</v>
+      </c>
+      <c r="E26">
+        <v>-0.03662379152275393</v>
+      </c>
+      <c r="F26">
+        <v>0.02804830216876973</v>
+      </c>
+      <c r="G26">
+        <v>0.01156670833169117</v>
+      </c>
+      <c r="H26">
+        <v>-0.06299394082389981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05926560065285381</v>
+        <v>0.07706621293850387</v>
       </c>
       <c r="C28">
-        <v>-0.07436395385391033</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07301430284480186</v>
+      </c>
+      <c r="D28">
+        <v>0.3167158834462444</v>
+      </c>
+      <c r="E28">
+        <v>-0.0321978377888797</v>
+      </c>
+      <c r="F28">
+        <v>0.05538447151789653</v>
+      </c>
+      <c r="G28">
+        <v>-0.02361563688790932</v>
+      </c>
+      <c r="H28">
+        <v>-0.000409864664135664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03793077994602525</v>
+        <v>0.04457957183498801</v>
       </c>
       <c r="C29">
-        <v>-0.02899669637474384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02087666904074328</v>
+      </c>
+      <c r="D29">
+        <v>-0.009996806647933386</v>
+      </c>
+      <c r="E29">
+        <v>-0.0412154805015916</v>
+      </c>
+      <c r="F29">
+        <v>0.01571548114570234</v>
+      </c>
+      <c r="G29">
+        <v>0.01550074805155769</v>
+      </c>
+      <c r="H29">
+        <v>-0.09065367033406428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1157568435130545</v>
+        <v>0.1311627453146357</v>
       </c>
       <c r="C30">
-        <v>-0.09776277230160005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06273780113747245</v>
+      </c>
+      <c r="D30">
+        <v>-0.09435176301382285</v>
+      </c>
+      <c r="E30">
+        <v>-0.04367713170401866</v>
+      </c>
+      <c r="F30">
+        <v>0.01515930667391753</v>
+      </c>
+      <c r="G30">
+        <v>-0.03195360609223956</v>
+      </c>
+      <c r="H30">
+        <v>0.03351847768207433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03916264295828883</v>
+        <v>0.04459445229599163</v>
       </c>
       <c r="C31">
-        <v>-0.02161432087127581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01185583867021037</v>
+      </c>
+      <c r="D31">
+        <v>-0.02638381170225646</v>
+      </c>
+      <c r="E31">
+        <v>-0.02287148646813146</v>
+      </c>
+      <c r="F31">
+        <v>0.01372256202364346</v>
+      </c>
+      <c r="G31">
+        <v>0.02261503273325712</v>
+      </c>
+      <c r="H31">
+        <v>-0.06899060347669862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03622632646312923</v>
+        <v>0.03302375893232754</v>
       </c>
       <c r="C32">
-        <v>-0.02219737694909196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01129850774167897</v>
+      </c>
+      <c r="D32">
+        <v>-0.01095126550093528</v>
+      </c>
+      <c r="E32">
+        <v>-0.07113778351486488</v>
+      </c>
+      <c r="F32">
+        <v>-9.31945144265685e-05</v>
+      </c>
+      <c r="G32">
+        <v>-0.03584603816767501</v>
+      </c>
+      <c r="H32">
+        <v>-0.04322682260101109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07462442737592648</v>
+        <v>0.08815405549808933</v>
       </c>
       <c r="C33">
-        <v>-0.04848756757544938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03026740338543094</v>
+      </c>
+      <c r="D33">
+        <v>-0.0587992877214931</v>
+      </c>
+      <c r="E33">
+        <v>-0.01520593071272106</v>
+      </c>
+      <c r="F33">
+        <v>0.005519412278336136</v>
+      </c>
+      <c r="G33">
+        <v>0.0150020243798915</v>
+      </c>
+      <c r="H33">
+        <v>-0.06174580082569949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05253167859981561</v>
+        <v>0.05852967224812407</v>
       </c>
       <c r="C34">
-        <v>-0.03346043376976204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0171839035144467</v>
+      </c>
+      <c r="D34">
+        <v>-0.06019105431061504</v>
+      </c>
+      <c r="E34">
+        <v>-0.002769874648073477</v>
+      </c>
+      <c r="F34">
+        <v>0.02147829279892426</v>
+      </c>
+      <c r="G34">
+        <v>-0.001221081978188081</v>
+      </c>
+      <c r="H34">
+        <v>-0.0494347560857891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03611805697516499</v>
+        <v>0.04014632279569386</v>
       </c>
       <c r="C35">
-        <v>-0.01135175616506313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003343259595088177</v>
+      </c>
+      <c r="D35">
+        <v>-0.01408493819916693</v>
+      </c>
+      <c r="E35">
+        <v>-0.02085199432531437</v>
+      </c>
+      <c r="F35">
+        <v>-0.003873232627184182</v>
+      </c>
+      <c r="G35">
+        <v>0.01489499827954822</v>
+      </c>
+      <c r="H35">
+        <v>-0.03815019773548017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01852379821890159</v>
+        <v>0.02496963413257096</v>
       </c>
       <c r="C36">
-        <v>-0.01645593750086142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01225488392588523</v>
+      </c>
+      <c r="D36">
+        <v>-0.01845590356574044</v>
+      </c>
+      <c r="E36">
+        <v>-0.03929534522961449</v>
+      </c>
+      <c r="F36">
+        <v>0.02123754489831858</v>
+      </c>
+      <c r="G36">
+        <v>0.01539405845485816</v>
+      </c>
+      <c r="H36">
+        <v>-0.05499453721641746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03828479876968842</v>
+        <v>0.04261164676062841</v>
       </c>
       <c r="C38">
-        <v>-0.008597316178342031</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001574135146896855</v>
+      </c>
+      <c r="D38">
+        <v>-0.02205185443533289</v>
+      </c>
+      <c r="E38">
+        <v>-0.05991397676509476</v>
+      </c>
+      <c r="F38">
+        <v>-0.007272723837527848</v>
+      </c>
+      <c r="G38">
+        <v>-0.01695206766081112</v>
+      </c>
+      <c r="H38">
+        <v>-0.03559377013232923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08735965657241028</v>
+        <v>0.1006234015575795</v>
       </c>
       <c r="C39">
-        <v>-0.08010849115127149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05308690848933802</v>
+      </c>
+      <c r="D39">
+        <v>-0.07727889815375898</v>
+      </c>
+      <c r="E39">
+        <v>0.01335097057341192</v>
+      </c>
+      <c r="F39">
+        <v>0.01117400778233196</v>
+      </c>
+      <c r="G39">
+        <v>-0.02523154758972257</v>
+      </c>
+      <c r="H39">
+        <v>-0.0510710357896113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06804303925923091</v>
+        <v>0.07078731965663121</v>
       </c>
       <c r="C40">
-        <v>-0.05525735178517394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03316950755074418</v>
+      </c>
+      <c r="D40">
+        <v>-0.008900229525890663</v>
+      </c>
+      <c r="E40">
+        <v>-0.02477053952549942</v>
+      </c>
+      <c r="F40">
+        <v>-0.05844207845073704</v>
+      </c>
+      <c r="G40">
+        <v>-0.07771259357614146</v>
+      </c>
+      <c r="H40">
+        <v>0.09073581391495922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03934814961039584</v>
+        <v>0.04294690892006647</v>
       </c>
       <c r="C41">
-        <v>-0.01204605250192453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.003443687107265884</v>
+      </c>
+      <c r="D41">
+        <v>-0.03940758964392379</v>
+      </c>
+      <c r="E41">
+        <v>-0.007490616867164346</v>
+      </c>
+      <c r="F41">
+        <v>-0.007401767796558572</v>
+      </c>
+      <c r="G41">
+        <v>-0.0108035342431941</v>
+      </c>
+      <c r="H41">
+        <v>-0.04563499291249475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04420720524385926</v>
+        <v>0.05244385205671704</v>
       </c>
       <c r="C43">
-        <v>-0.03007313013346516</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01887307082421275</v>
+      </c>
+      <c r="D43">
+        <v>-0.02593898359753881</v>
+      </c>
+      <c r="E43">
+        <v>-0.01711073152085938</v>
+      </c>
+      <c r="F43">
+        <v>0.01264586247662247</v>
+      </c>
+      <c r="G43">
+        <v>0.006903603429223452</v>
+      </c>
+      <c r="H43">
+        <v>-0.05233347166229369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09182423576250674</v>
+        <v>0.09084334461020653</v>
       </c>
       <c r="C44">
-        <v>-0.09315433882280959</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.05993492618389673</v>
+      </c>
+      <c r="D44">
+        <v>-0.06061953439442171</v>
+      </c>
+      <c r="E44">
+        <v>-0.09846177292584533</v>
+      </c>
+      <c r="F44">
+        <v>0.0589952536803097</v>
+      </c>
+      <c r="G44">
+        <v>-0.02875564730283401</v>
+      </c>
+      <c r="H44">
+        <v>0.04373712521342808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02577054256945332</v>
+        <v>0.02817457450527515</v>
       </c>
       <c r="C46">
-        <v>-0.01741275565032733</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009678714936378372</v>
+      </c>
+      <c r="D46">
+        <v>-0.0319626692666528</v>
+      </c>
+      <c r="E46">
+        <v>-0.01831070795313038</v>
+      </c>
+      <c r="F46">
+        <v>0.01565171067152019</v>
+      </c>
+      <c r="G46">
+        <v>-0.001197891576766993</v>
+      </c>
+      <c r="H46">
+        <v>-0.04610310484417334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02651482829014399</v>
+        <v>0.02875343930476121</v>
       </c>
       <c r="C47">
-        <v>-0.02003065739853936</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01257188609243455</v>
+      </c>
+      <c r="D47">
+        <v>-0.01248566847538367</v>
+      </c>
+      <c r="E47">
+        <v>-0.04743327567201946</v>
+      </c>
+      <c r="F47">
+        <v>0.01728428650646454</v>
+      </c>
+      <c r="G47">
+        <v>0.03657483554960057</v>
+      </c>
+      <c r="H47">
+        <v>-0.0334107719383447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02862828547766566</v>
+        <v>0.03314877765221293</v>
       </c>
       <c r="C48">
-        <v>-0.01933192772176219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01116312005483288</v>
+      </c>
+      <c r="D48">
+        <v>-0.03134959023129588</v>
+      </c>
+      <c r="E48">
+        <v>-0.04095316715211413</v>
+      </c>
+      <c r="F48">
+        <v>0.01087467907136727</v>
+      </c>
+      <c r="G48">
+        <v>-0.005714781350005073</v>
+      </c>
+      <c r="H48">
+        <v>-0.0556751122690561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1534567992152105</v>
+        <v>0.1814751441403775</v>
       </c>
       <c r="C49">
-        <v>-0.08670286613693035</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05123800455310941</v>
+      </c>
+      <c r="D49">
+        <v>-0.02335722306768697</v>
+      </c>
+      <c r="E49">
+        <v>0.1286170840033034</v>
+      </c>
+      <c r="F49">
+        <v>0.02850494547169439</v>
+      </c>
+      <c r="G49">
+        <v>0.04183306955393317</v>
+      </c>
+      <c r="H49">
+        <v>0.267030473469931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03474622935540051</v>
+        <v>0.04272550282367408</v>
       </c>
       <c r="C50">
-        <v>-0.02819638909442927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02118041682121902</v>
+      </c>
+      <c r="D50">
+        <v>-0.0331102435588921</v>
+      </c>
+      <c r="E50">
+        <v>-0.04738049973160323</v>
+      </c>
+      <c r="F50">
+        <v>0.02580157142708442</v>
+      </c>
+      <c r="G50">
+        <v>0.01846003082682346</v>
+      </c>
+      <c r="H50">
+        <v>-0.07252836146111952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02442466328572439</v>
+        <v>0.02660549409699667</v>
       </c>
       <c r="C51">
-        <v>-0.01337478669161519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008392529729380144</v>
+      </c>
+      <c r="D51">
+        <v>-0.0233000321727175</v>
+      </c>
+      <c r="E51">
+        <v>-0.01552022057589403</v>
+      </c>
+      <c r="F51">
+        <v>0.01396143064905462</v>
+      </c>
+      <c r="G51">
+        <v>-0.004124203002162851</v>
+      </c>
+      <c r="H51">
+        <v>-0.01334659682944827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1406780784810174</v>
+        <v>0.1589380751467946</v>
       </c>
       <c r="C53">
-        <v>-0.0924955688167545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06151231739751253</v>
+      </c>
+      <c r="D53">
+        <v>-0.02299508884903663</v>
+      </c>
+      <c r="E53">
+        <v>0.0380799871631985</v>
+      </c>
+      <c r="F53">
+        <v>0.0184962887710395</v>
+      </c>
+      <c r="G53">
+        <v>0.005835505862998105</v>
+      </c>
+      <c r="H53">
+        <v>-0.153106778921224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05249883759691493</v>
+        <v>0.05597622474017545</v>
       </c>
       <c r="C54">
-        <v>-0.02626174913409865</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01209234114276608</v>
+      </c>
+      <c r="D54">
+        <v>-0.02946755016202513</v>
+      </c>
+      <c r="E54">
+        <v>-0.04777485494142868</v>
+      </c>
+      <c r="F54">
+        <v>0.01558712337581261</v>
+      </c>
+      <c r="G54">
+        <v>-0.005676890441022036</v>
+      </c>
+      <c r="H54">
+        <v>-0.061699501439927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09295146140341765</v>
+        <v>0.09936497655151472</v>
       </c>
       <c r="C55">
-        <v>-0.06020989556188408</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0378068901065801</v>
+      </c>
+      <c r="D55">
+        <v>-0.02930753261888238</v>
+      </c>
+      <c r="E55">
+        <v>-0.008796423096866705</v>
+      </c>
+      <c r="F55">
+        <v>0.02009802192494251</v>
+      </c>
+      <c r="G55">
+        <v>0.001311373215168381</v>
+      </c>
+      <c r="H55">
+        <v>-0.1414716796257494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1397221693982936</v>
+        <v>0.1578014000391662</v>
       </c>
       <c r="C56">
-        <v>-0.1048401819258648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07100815886877498</v>
+      </c>
+      <c r="D56">
+        <v>-0.01621652463333747</v>
+      </c>
+      <c r="E56">
+        <v>0.04090636659412611</v>
+      </c>
+      <c r="F56">
+        <v>0.04145880258636654</v>
+      </c>
+      <c r="G56">
+        <v>0.01703329545297504</v>
+      </c>
+      <c r="H56">
+        <v>-0.1525888268579493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1188422946331312</v>
+        <v>0.1012985876874184</v>
       </c>
       <c r="C58">
-        <v>-0.02262587034555321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01893087998117313</v>
+      </c>
+      <c r="D58">
+        <v>-0.05614089078187526</v>
+      </c>
+      <c r="E58">
+        <v>-0.1816720092306148</v>
+      </c>
+      <c r="F58">
+        <v>0.01669818270954738</v>
+      </c>
+      <c r="G58">
+        <v>0.03788004718943984</v>
+      </c>
+      <c r="H58">
+        <v>0.181708313817846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1164207500798423</v>
+        <v>0.1498643899123323</v>
       </c>
       <c r="C59">
-        <v>-0.08589433444019072</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08082629949740007</v>
+      </c>
+      <c r="D59">
+        <v>0.3572193674274535</v>
+      </c>
+      <c r="E59">
+        <v>-0.04391381364693556</v>
+      </c>
+      <c r="F59">
+        <v>-0.002814398541741289</v>
+      </c>
+      <c r="G59">
+        <v>0.04265163698299872</v>
+      </c>
+      <c r="H59">
+        <v>0.00356621631342421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1892746270505634</v>
+        <v>0.2209614311582698</v>
       </c>
       <c r="C60">
-        <v>-0.1143215317735168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07339758605501537</v>
+      </c>
+      <c r="D60">
+        <v>-0.02973565467387305</v>
+      </c>
+      <c r="E60">
+        <v>0.07353957622714817</v>
+      </c>
+      <c r="F60">
+        <v>0.04799603869227777</v>
+      </c>
+      <c r="G60">
+        <v>-0.02691795439046489</v>
+      </c>
+      <c r="H60">
+        <v>0.1645617923646762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07534223684856287</v>
+        <v>0.08590702322305156</v>
       </c>
       <c r="C61">
-        <v>-0.06089303135945935</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04014049952752575</v>
+      </c>
+      <c r="D61">
+        <v>-0.05877887017941689</v>
+      </c>
+      <c r="E61">
+        <v>0.01715792755000157</v>
+      </c>
+      <c r="F61">
+        <v>0.005242095802523588</v>
+      </c>
+      <c r="G61">
+        <v>0.01018302305248606</v>
+      </c>
+      <c r="H61">
+        <v>-0.06893414581335508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1213901880876965</v>
+        <v>0.1394643686174396</v>
       </c>
       <c r="C62">
-        <v>-0.07848672541555711</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05182568687220706</v>
+      </c>
+      <c r="D62">
+        <v>-0.02435805623171244</v>
+      </c>
+      <c r="E62">
+        <v>0.05421732099678444</v>
+      </c>
+      <c r="F62">
+        <v>0.01439798411681803</v>
+      </c>
+      <c r="G62">
+        <v>-0.02721900176662077</v>
+      </c>
+      <c r="H62">
+        <v>-0.1499459657452836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05111415997801905</v>
+        <v>0.05060217040704899</v>
       </c>
       <c r="C63">
-        <v>-0.03169756122403621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01644394329820954</v>
+      </c>
+      <c r="D63">
+        <v>-0.02655756751323144</v>
+      </c>
+      <c r="E63">
+        <v>-0.04932776511242044</v>
+      </c>
+      <c r="F63">
+        <v>0.01186856314773057</v>
+      </c>
+      <c r="G63">
+        <v>-0.03202384987592177</v>
+      </c>
+      <c r="H63">
+        <v>-0.0869915171834066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1041626628637174</v>
+        <v>0.1107852470236658</v>
       </c>
       <c r="C64">
-        <v>-0.04007958988311808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01300616084876973</v>
+      </c>
+      <c r="D64">
+        <v>-0.05345727190546888</v>
+      </c>
+      <c r="E64">
+        <v>-0.02122088177481789</v>
+      </c>
+      <c r="F64">
+        <v>0.05600860346533045</v>
+      </c>
+      <c r="G64">
+        <v>-0.02478785897170335</v>
+      </c>
+      <c r="H64">
+        <v>-0.0755837378145847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1129332742917968</v>
+        <v>0.1248531771629598</v>
       </c>
       <c r="C65">
-        <v>-0.06462320277971997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03927662498411271</v>
+      </c>
+      <c r="D65">
+        <v>-0.007371866720304722</v>
+      </c>
+      <c r="E65">
+        <v>-0.000401829911029655</v>
+      </c>
+      <c r="F65">
+        <v>0.06406245091857002</v>
+      </c>
+      <c r="G65">
+        <v>-0.03544783778499248</v>
+      </c>
+      <c r="H65">
+        <v>0.08804026942488612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1345942117057094</v>
+        <v>0.1516658213710948</v>
       </c>
       <c r="C66">
-        <v>-0.09140208660728776</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05490672203294658</v>
+      </c>
+      <c r="D66">
+        <v>-0.1143169008556265</v>
+      </c>
+      <c r="E66">
+        <v>0.05263645195315119</v>
+      </c>
+      <c r="F66">
+        <v>0.02345493953011854</v>
+      </c>
+      <c r="G66">
+        <v>-0.02937407314688517</v>
+      </c>
+      <c r="H66">
+        <v>-0.1254200120352003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07019896389338785</v>
+        <v>0.07739689863374191</v>
       </c>
       <c r="C67">
-        <v>-0.01984925051512061</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.005864340578015164</v>
+      </c>
+      <c r="D67">
+        <v>-0.03160072236477399</v>
+      </c>
+      <c r="E67">
+        <v>-0.02716002439154814</v>
+      </c>
+      <c r="F67">
+        <v>0.01385294427298981</v>
+      </c>
+      <c r="G67">
+        <v>0.003613123692081984</v>
+      </c>
+      <c r="H67">
+        <v>-0.03053639362711358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05969485101905113</v>
+        <v>0.07054270921847132</v>
       </c>
       <c r="C68">
-        <v>-0.04996306034712814</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0481337664958089</v>
+      </c>
+      <c r="D68">
+        <v>0.2642156268274327</v>
+      </c>
+      <c r="E68">
+        <v>-0.04812943017383439</v>
+      </c>
+      <c r="F68">
+        <v>0.0120069965732114</v>
+      </c>
+      <c r="G68">
+        <v>0.01118192121571225</v>
+      </c>
+      <c r="H68">
+        <v>-0.02252793070086947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0484198706643463</v>
+        <v>0.04717080140582647</v>
       </c>
       <c r="C69">
-        <v>-0.02256419349808224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.007251031476516032</v>
+      </c>
+      <c r="D69">
+        <v>-0.02094351804075473</v>
+      </c>
+      <c r="E69">
+        <v>-0.02402327565495633</v>
+      </c>
+      <c r="F69">
+        <v>-0.003849320793557193</v>
+      </c>
+      <c r="G69">
+        <v>0.0085540631946246</v>
+      </c>
+      <c r="H69">
+        <v>-0.06342695806489507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004900099139975834</v>
+        <v>0.01914120113824187</v>
       </c>
       <c r="C70">
-        <v>0.003278241682037347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0009430729551937317</v>
+      </c>
+      <c r="D70">
+        <v>0.0009362362417706127</v>
+      </c>
+      <c r="E70">
+        <v>0.02787534113792668</v>
+      </c>
+      <c r="F70">
+        <v>0.01629029560526626</v>
+      </c>
+      <c r="G70">
+        <v>0.01759720938772152</v>
+      </c>
+      <c r="H70">
+        <v>0.05647158692095216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06286752307858127</v>
+        <v>0.07437073836957021</v>
       </c>
       <c r="C71">
-        <v>-0.04740668326041485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04612021887703519</v>
+      </c>
+      <c r="D71">
+        <v>0.2945296751533421</v>
+      </c>
+      <c r="E71">
+        <v>-0.0438552497142105</v>
+      </c>
+      <c r="F71">
+        <v>0.03986144057173348</v>
+      </c>
+      <c r="G71">
+        <v>0.008593012953684635</v>
+      </c>
+      <c r="H71">
+        <v>-0.0118929984294063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1342755081791718</v>
+        <v>0.1548822634636861</v>
       </c>
       <c r="C72">
-        <v>-0.06877171453579842</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04120820306084728</v>
+      </c>
+      <c r="D72">
+        <v>-0.003981471223668293</v>
+      </c>
+      <c r="E72">
+        <v>0.08573737480815562</v>
+      </c>
+      <c r="F72">
+        <v>-0.1635710863663908</v>
+      </c>
+      <c r="G72">
+        <v>-0.1133124747180769</v>
+      </c>
+      <c r="H72">
+        <v>-0.0204874755262649</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2502402139126657</v>
+        <v>0.2814696363056794</v>
       </c>
       <c r="C73">
-        <v>-0.1373703518785229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07369734723603898</v>
+      </c>
+      <c r="D73">
+        <v>-0.09488914286418927</v>
+      </c>
+      <c r="E73">
+        <v>0.1868351545672707</v>
+      </c>
+      <c r="F73">
+        <v>0.08327058453268543</v>
+      </c>
+      <c r="G73">
+        <v>0.1811276460100043</v>
+      </c>
+      <c r="H73">
+        <v>0.5767834211628109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07378709201457107</v>
+        <v>0.08897926508223163</v>
       </c>
       <c r="C74">
-        <v>-0.08316159653680519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06280650224696828</v>
+      </c>
+      <c r="D74">
+        <v>-0.02960990768794</v>
+      </c>
+      <c r="E74">
+        <v>0.005722760091218066</v>
+      </c>
+      <c r="F74">
+        <v>-0.01091617755638785</v>
+      </c>
+      <c r="G74">
+        <v>0.03654627195463482</v>
+      </c>
+      <c r="H74">
+        <v>-0.1271141598828166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09397710139551954</v>
+        <v>0.1017827528233949</v>
       </c>
       <c r="C75">
-        <v>-0.0603982314951768</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03179259448376125</v>
+      </c>
+      <c r="D75">
+        <v>-0.008547726422809761</v>
+      </c>
+      <c r="E75">
+        <v>0.003117724963432687</v>
+      </c>
+      <c r="F75">
+        <v>0.04582281360619917</v>
+      </c>
+      <c r="G75">
+        <v>0.02064502062091481</v>
+      </c>
+      <c r="H75">
+        <v>-0.1179593262296042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1177827770832087</v>
+        <v>0.1322599273939868</v>
       </c>
       <c r="C76">
-        <v>-0.09542632702432396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06481178144697154</v>
+      </c>
+      <c r="D76">
+        <v>-0.05127713305834498</v>
+      </c>
+      <c r="E76">
+        <v>-0.009882684546135518</v>
+      </c>
+      <c r="F76">
+        <v>0.06439475526101489</v>
+      </c>
+      <c r="G76">
+        <v>0.008944154146543912</v>
+      </c>
+      <c r="H76">
+        <v>-0.1568681329267143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1173278856217958</v>
+        <v>0.1143135625151797</v>
       </c>
       <c r="C77">
-        <v>-0.05089717648024703</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01515951079134092</v>
+      </c>
+      <c r="D77">
+        <v>-0.01762639718910865</v>
+      </c>
+      <c r="E77">
+        <v>0.01830777850188315</v>
+      </c>
+      <c r="F77">
+        <v>0.2215159737912055</v>
+      </c>
+      <c r="G77">
+        <v>-0.8875470572670524</v>
+      </c>
+      <c r="H77">
+        <v>0.1279787189017566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08841388689700999</v>
+        <v>0.1128669920347874</v>
       </c>
       <c r="C78">
-        <v>-0.04631478944078968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.02978685776911469</v>
+      </c>
+      <c r="D78">
+        <v>-0.09046127751367064</v>
+      </c>
+      <c r="E78">
+        <v>-0.05944295302481925</v>
+      </c>
+      <c r="F78">
+        <v>0.01787765721650768</v>
+      </c>
+      <c r="G78">
+        <v>-0.03908464769726146</v>
+      </c>
+      <c r="H78">
+        <v>0.1087721477782858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1377400790809187</v>
+        <v>0.1502366993818429</v>
       </c>
       <c r="C79">
-        <v>-0.09669226266887584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.05751655943345148</v>
+      </c>
+      <c r="D79">
+        <v>-0.02776500241504712</v>
+      </c>
+      <c r="E79">
+        <v>0.0252940262741373</v>
+      </c>
+      <c r="F79">
+        <v>0.02177806406410868</v>
+      </c>
+      <c r="G79">
+        <v>0.02194615984216823</v>
+      </c>
+      <c r="H79">
+        <v>-0.1528416490479152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04023113509658793</v>
+        <v>0.03932509951035234</v>
       </c>
       <c r="C80">
-        <v>-0.01800274322154729</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006410149632266882</v>
+      </c>
+      <c r="D80">
+        <v>-0.02801905572813043</v>
+      </c>
+      <c r="E80">
+        <v>0.003111763112975205</v>
+      </c>
+      <c r="F80">
+        <v>-0.02331252895157962</v>
+      </c>
+      <c r="G80">
+        <v>0.03575391381663333</v>
+      </c>
+      <c r="H80">
+        <v>-0.04632101547778819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1114248122114512</v>
+        <v>0.1182559192677493</v>
       </c>
       <c r="C81">
-        <v>-0.07308815786512442</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04128859845298668</v>
+      </c>
+      <c r="D81">
+        <v>-0.02821312536542673</v>
+      </c>
+      <c r="E81">
+        <v>0.005420474757093962</v>
+      </c>
+      <c r="F81">
+        <v>0.02823645519230919</v>
+      </c>
+      <c r="G81">
+        <v>0.06044408140660954</v>
+      </c>
+      <c r="H81">
+        <v>-0.1763131125527501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1195455717806691</v>
+        <v>0.1279546643281313</v>
       </c>
       <c r="C82">
-        <v>-0.08656151634105422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05437810141393729</v>
+      </c>
+      <c r="D82">
+        <v>-0.0328875980795106</v>
+      </c>
+      <c r="E82">
+        <v>0.02160770304405386</v>
+      </c>
+      <c r="F82">
+        <v>0.05683906595895129</v>
+      </c>
+      <c r="G82">
+        <v>0.05386496247907966</v>
+      </c>
+      <c r="H82">
+        <v>-0.1718256859589921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07222167593181686</v>
+        <v>0.07818397530312483</v>
       </c>
       <c r="C83">
-        <v>-0.01676297344073251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.00311897274054752</v>
+      </c>
+      <c r="D83">
+        <v>-0.0520281789623778</v>
+      </c>
+      <c r="E83">
+        <v>-0.01179351681877525</v>
+      </c>
+      <c r="F83">
+        <v>0.02270019196004002</v>
+      </c>
+      <c r="G83">
+        <v>0.08702363768785742</v>
+      </c>
+      <c r="H83">
+        <v>0.02163891669275416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0263652881444624</v>
+        <v>0.03698551526986431</v>
       </c>
       <c r="C84">
-        <v>-0.02461413939957709</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02069650443175955</v>
+      </c>
+      <c r="D84">
+        <v>-0.03517663546130502</v>
+      </c>
+      <c r="E84">
+        <v>-0.02402162172537722</v>
+      </c>
+      <c r="F84">
+        <v>-0.04887986480665461</v>
+      </c>
+      <c r="G84">
+        <v>0.05845558152642492</v>
+      </c>
+      <c r="H84">
+        <v>-0.01325996930731621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1149974044150786</v>
+        <v>0.1172308148701175</v>
       </c>
       <c r="C85">
-        <v>-0.06943226645076114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03524695273989373</v>
+      </c>
+      <c r="D85">
+        <v>-0.02689085318849621</v>
+      </c>
+      <c r="E85">
+        <v>-0.002488360565409485</v>
+      </c>
+      <c r="F85">
+        <v>0.06581637846262085</v>
+      </c>
+      <c r="G85">
+        <v>0.02718349151705403</v>
+      </c>
+      <c r="H85">
+        <v>-0.1359508475815815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04741874260817661</v>
+        <v>0.04929496891367341</v>
       </c>
       <c r="C86">
-        <v>-0.02627205527983159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01287875282729198</v>
+      </c>
+      <c r="D86">
+        <v>-0.02107762435674958</v>
+      </c>
+      <c r="E86">
+        <v>-0.05719899108544656</v>
+      </c>
+      <c r="F86">
+        <v>0.02651130895597384</v>
+      </c>
+      <c r="G86">
+        <v>0.008277419458322856</v>
+      </c>
+      <c r="H86">
+        <v>-0.01769623732058577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1185616242967971</v>
+        <v>0.121228227645572</v>
       </c>
       <c r="C87">
-        <v>-0.0787759718744029</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03954972046027812</v>
+      </c>
+      <c r="D87">
+        <v>-0.07026626279839499</v>
+      </c>
+      <c r="E87">
+        <v>-0.01497305365988056</v>
+      </c>
+      <c r="F87">
+        <v>0.01626466152286366</v>
+      </c>
+      <c r="G87">
+        <v>-0.1019069900825365</v>
+      </c>
+      <c r="H87">
+        <v>-0.004885759269726958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0528083433954625</v>
+        <v>0.05794799242200628</v>
       </c>
       <c r="C88">
-        <v>-0.03548757036868712</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02155017485481631</v>
+      </c>
+      <c r="D88">
+        <v>-0.02403290913963181</v>
+      </c>
+      <c r="E88">
+        <v>-0.01827166615817569</v>
+      </c>
+      <c r="F88">
+        <v>0.009035424342103471</v>
+      </c>
+      <c r="G88">
+        <v>-0.009209217090727662</v>
+      </c>
+      <c r="H88">
+        <v>-0.06922206037011527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08454083023864672</v>
+        <v>0.1087120723491215</v>
       </c>
       <c r="C89">
-        <v>-0.07090626751534496</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07037438116294341</v>
+      </c>
+      <c r="D89">
+        <v>0.3280776184495642</v>
+      </c>
+      <c r="E89">
+        <v>-0.07199606564473522</v>
+      </c>
+      <c r="F89">
+        <v>0.06991885518000049</v>
+      </c>
+      <c r="G89">
+        <v>0.02242892512056839</v>
+      </c>
+      <c r="H89">
+        <v>0.005280456565798394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07465778919730695</v>
+        <v>0.09147931511458848</v>
       </c>
       <c r="C90">
-        <v>-0.06101458565491271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05900424655741685</v>
+      </c>
+      <c r="D90">
+        <v>0.3043418581961158</v>
+      </c>
+      <c r="E90">
+        <v>-0.06232433399242693</v>
+      </c>
+      <c r="F90">
+        <v>-0.003343364587722854</v>
+      </c>
+      <c r="G90">
+        <v>0.0030630361356415</v>
+      </c>
+      <c r="H90">
+        <v>-0.02083152429332585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07833992126991951</v>
+        <v>0.08667152115524768</v>
       </c>
       <c r="C91">
-        <v>-0.06382380336154828</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04088230759524031</v>
+      </c>
+      <c r="D91">
+        <v>-0.02392401490847229</v>
+      </c>
+      <c r="E91">
+        <v>-0.01361407272252325</v>
+      </c>
+      <c r="F91">
+        <v>0.01018378599587318</v>
+      </c>
+      <c r="G91">
+        <v>0.04535811758965393</v>
+      </c>
+      <c r="H91">
+        <v>-0.08529392721565443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08584676816932164</v>
+        <v>0.1021268704442144</v>
       </c>
       <c r="C92">
-        <v>-0.07264150704182022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06714750413391189</v>
+      </c>
+      <c r="D92">
+        <v>0.3433709913625834</v>
+      </c>
+      <c r="E92">
+        <v>-0.04997383592578236</v>
+      </c>
+      <c r="F92">
+        <v>0.03535624267378567</v>
+      </c>
+      <c r="G92">
+        <v>0.001607872331207827</v>
+      </c>
+      <c r="H92">
+        <v>-0.01724107147228582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06837557460053037</v>
+        <v>0.08728353711250844</v>
       </c>
       <c r="C93">
-        <v>-0.06178945628575468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06267175108228731</v>
+      </c>
+      <c r="D93">
+        <v>0.3020230055912189</v>
+      </c>
+      <c r="E93">
+        <v>-0.03250859555771431</v>
+      </c>
+      <c r="F93">
+        <v>0.04327417326351828</v>
+      </c>
+      <c r="G93">
+        <v>-0.0002235239373779351</v>
+      </c>
+      <c r="H93">
+        <v>0.01277067242286859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1247967460796796</v>
+        <v>0.127037063372878</v>
       </c>
       <c r="C94">
-        <v>-0.07297603596873875</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03362725035769736</v>
+      </c>
+      <c r="D94">
+        <v>-0.05123598361677597</v>
+      </c>
+      <c r="E94">
+        <v>0.02276238474613258</v>
+      </c>
+      <c r="F94">
+        <v>0.02767388451442752</v>
+      </c>
+      <c r="G94">
+        <v>0.04608440521899321</v>
+      </c>
+      <c r="H94">
+        <v>-0.08815293422690591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1117808801080002</v>
+        <v>0.119956176052994</v>
       </c>
       <c r="C95">
-        <v>-0.05328509282877582</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.0211769497657238</v>
+      </c>
+      <c r="D95">
+        <v>-0.06302531875215844</v>
+      </c>
+      <c r="E95">
+        <v>0.01249373302120978</v>
+      </c>
+      <c r="F95">
+        <v>0.02777004742187763</v>
+      </c>
+      <c r="G95">
+        <v>0.01270538732246645</v>
+      </c>
+      <c r="H95">
+        <v>-0.01231566098459351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2030487689189171</v>
+        <v>0.2203672129759856</v>
       </c>
       <c r="C97">
-        <v>-0.07160694135108843</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02807443063821611</v>
+      </c>
+      <c r="D97">
+        <v>0.04264045742537759</v>
+      </c>
+      <c r="E97">
+        <v>0.130780064003612</v>
+      </c>
+      <c r="F97">
+        <v>-0.9022941669487424</v>
+      </c>
+      <c r="G97">
+        <v>-0.1628911119977693</v>
+      </c>
+      <c r="H97">
+        <v>-0.007639721297249136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2399528095408914</v>
+        <v>0.2699598172676969</v>
       </c>
       <c r="C98">
-        <v>-0.1103351061326688</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05149690159227947</v>
+      </c>
+      <c r="D98">
+        <v>-0.06361314838016502</v>
+      </c>
+      <c r="E98">
+        <v>0.1599933788057765</v>
+      </c>
+      <c r="F98">
+        <v>0.0395890225957903</v>
+      </c>
+      <c r="G98">
+        <v>0.2628937166982194</v>
+      </c>
+      <c r="H98">
+        <v>0.17700003026394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5303673049647237</v>
+        <v>0.3258712726889344</v>
       </c>
       <c r="C99">
-        <v>0.8373410102781248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9329515173774457</v>
+      </c>
+      <c r="D99">
+        <v>0.07715583192162975</v>
+      </c>
+      <c r="E99">
+        <v>-0.04009302448193486</v>
+      </c>
+      <c r="F99">
+        <v>0.04124014505847513</v>
+      </c>
+      <c r="G99">
+        <v>0.01422181009493387</v>
+      </c>
+      <c r="H99">
+        <v>-0.04420617858070384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0380115388201153</v>
+        <v>0.04468179295391189</v>
       </c>
       <c r="C101">
-        <v>-0.02899685941231515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02094945844360627</v>
+      </c>
+      <c r="D101">
+        <v>-0.01050839720037712</v>
+      </c>
+      <c r="E101">
+        <v>-0.04045244180742141</v>
+      </c>
+      <c r="F101">
+        <v>0.01511016891470787</v>
+      </c>
+      <c r="G101">
+        <v>0.01554921596592436</v>
+      </c>
+      <c r="H101">
+        <v>-0.08991565918453254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
